--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/62.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/62.xlsx
@@ -479,13 +479,13 @@
         <v>-2.52682184041993</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.574528877477097</v>
+        <v>-5.202001221238779</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.784054509331255</v>
+        <v>-7.275653927813286</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.94839304052904</v>
+        <v>-13.55335875024109</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.435599724795989</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.415076272078316</v>
+        <v>-5.994514123372559</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.512641293114471</v>
+        <v>-7.041871397451147</v>
       </c>
       <c r="G3" t="n">
-        <v>-13.70371037841933</v>
+        <v>-14.23730636588816</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.513067738554009</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.529764948728057</v>
+        <v>-7.066370210861258</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.604280837827925</v>
+        <v>-7.233496021599879</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.16904116300542</v>
+        <v>-14.5643027011749</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.77435333874699</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.207728419970021</v>
+        <v>-7.809069022028042</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.082902478519514</v>
+        <v>-6.716679105698299</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.06257561403027</v>
+        <v>-15.47786741333349</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.193817568422427</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.218491477649751</v>
+        <v>-8.886703915633435</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.769341134103056</v>
+        <v>-6.408925901439737</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.67527084359892</v>
+        <v>-15.95736165081304</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.731602255222054</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.0950610748464</v>
+        <v>-9.854155261479166</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.821707286654583</v>
+        <v>-6.563486964530386</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.08088729831251</v>
+        <v>-16.26076852796692</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.337753480779417</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.088820166643</v>
+        <v>-10.98413675160862</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.385026082308607</v>
+        <v>-6.109904463445485</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.16505879409897</v>
+        <v>-17.30617997731247</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.948189264938034</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.56674503291827</v>
+        <v>-11.47434769214044</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.973718823601919</v>
+        <v>-5.624274522347957</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.53882336907462</v>
+        <v>-17.61080421717621</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.488885107426043</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.32292772502401</v>
+        <v>-12.49098733607421</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.822472507167038</v>
+        <v>-5.460859467821324</v>
       </c>
       <c r="G10" t="n">
-        <v>-18.22266342657062</v>
+        <v>-18.35737512178159</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.887301084956984</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.77466707052008</v>
+        <v>-13.03858543920988</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.949557351665625</v>
+        <v>-5.550856306227494</v>
       </c>
       <c r="G11" t="n">
-        <v>-18.62785453768679</v>
+        <v>-18.80272942430947</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.079863953727494</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.70993897316777</v>
+        <v>-14.11737413843587</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.441697096344234</v>
+        <v>-4.981414120410443</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.69516638423048</v>
+        <v>-18.89677436040145</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.023013232798998</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.39887337581909</v>
+        <v>-14.88928476563247</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.569969969511482</v>
+        <v>-5.079380040009685</v>
       </c>
       <c r="G13" t="n">
-        <v>-18.44271273664359</v>
+        <v>-18.67767840666752</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.704272071759209</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.0540589640681</v>
+        <v>-15.47209349622366</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.408143842216597</v>
+        <v>-4.806573456835831</v>
       </c>
       <c r="G14" t="n">
-        <v>-18.05201753088782</v>
+        <v>-18.34720598749841</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.143050578763817</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.4183877557906</v>
+        <v>-15.86130733289876</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.277861587227047</v>
+        <v>-4.699318424189451</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.03836507014974</v>
+        <v>-17.47774500628625</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.39046955847788</v>
       </c>
       <c r="E16" t="n">
-        <v>-16.44098709909514</v>
+        <v>-17.06130917937617</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.191223496538448</v>
+        <v>-4.625572644608906</v>
       </c>
       <c r="G16" t="n">
-        <v>-16.31018172037082</v>
+        <v>-16.83512905469209</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.526613002277661</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.14990287281154</v>
+        <v>-17.83069707902944</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.888388633188002</v>
+        <v>-4.252340971381751</v>
       </c>
       <c r="G17" t="n">
-        <v>-15.33989475054228</v>
+        <v>-16.04340328266388</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.642300016205867</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.93437824765611</v>
+        <v>-18.63300266191765</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.332024540739948</v>
+        <v>-3.638912390783066</v>
       </c>
       <c r="G18" t="n">
-        <v>-14.06199635765432</v>
+        <v>-14.77107346859733</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.825108815497631</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.34340958272846</v>
+        <v>-20.0523644684998</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.356782471514005</v>
+        <v>-3.730439488338581</v>
       </c>
       <c r="G19" t="n">
-        <v>-13.11327968612261</v>
+        <v>-13.8601585981606</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.148090010394965</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.48496824111877</v>
+        <v>-21.28091322607312</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.127434270380158</v>
+        <v>-3.554352128012905</v>
       </c>
       <c r="G20" t="n">
-        <v>-11.61478930339944</v>
+        <v>-12.31675290935109</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6556435526808609</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.30596938626606</v>
+        <v>-22.21132056688824</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.750178944501533</v>
+        <v>-3.204939696241361</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.82728274429738</v>
+        <v>-11.45300717716636</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.3694386134896529</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.01542295073783</v>
+        <v>-22.79337150141507</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.090629826686022</v>
+        <v>-3.56107940146178</v>
       </c>
       <c r="G22" t="n">
-        <v>-10.02866836159369</v>
+        <v>-10.68363883354056</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.2873980645029239</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.36346157157977</v>
+        <v>-23.13820293375231</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.890263658259247</v>
+        <v>-3.382689318901787</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.971845970220759</v>
+        <v>-9.541117040797468</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.3834452456082691</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.06842213874083</v>
+        <v>-23.87017037484621</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.652379251135766</v>
+        <v>-3.139832791794654</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.457537114841907</v>
+        <v>-9.011583818035042</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.6249474611493391</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.41227088069783</v>
+        <v>-24.21607249968731</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.950408220736035</v>
+        <v>-3.493787110945563</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.104741490318457</v>
+        <v>-8.719827444245027</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9711530574971828</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.06894761604124</v>
+        <v>-24.95764195026784</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.925792071161118</v>
+        <v>-3.590863231295026</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.058012362684483</v>
+        <v>-8.649484413443854</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.377485093274869</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.67133446556878</v>
+        <v>-24.46806169162184</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.864914157654293</v>
+        <v>-3.421869819933244</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.097197752722806</v>
+        <v>-8.592278144094083</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.806117443491974</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.76626920091054</v>
+        <v>-24.50150249859155</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.790488806119247</v>
+        <v>-3.364854221851282</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.473827285722468</v>
+        <v>-9.028651341007443</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.219246518680841</v>
       </c>
       <c r="E29" t="n">
-        <v>-23.71883605628773</v>
+        <v>-24.44586560044605</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.158591911143007</v>
+        <v>-3.683700582690874</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.894291654290887</v>
+        <v>-9.382483434986678</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.584660372964067</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.7615610872977</v>
+        <v>-24.50528658990654</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.143558215027243</v>
+        <v>-3.631393098221751</v>
       </c>
       <c r="G30" t="n">
-        <v>-9.55482092704543</v>
+        <v>-10.04992087444417</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.877193686532634</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.58898403390247</v>
+        <v>-24.2794242506688</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.110327635352823</v>
+        <v>-3.643928511828521</v>
       </c>
       <c r="G31" t="n">
-        <v>-10.25334756116964</v>
+        <v>-10.59898567963992</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.076283430561353</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.35618908292745</v>
+        <v>-23.9834095518977</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.118560722916707</v>
+        <v>-3.509216816617546</v>
       </c>
       <c r="G32" t="n">
-        <v>-10.32898049740081</v>
+        <v>-10.55011027799138</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.167694552971775</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.34799021841163</v>
+        <v>-23.9708496932566</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.976735522714371</v>
+        <v>-3.365362678565441</v>
       </c>
       <c r="G33" t="n">
-        <v>-11.16128991543128</v>
+        <v>-11.41704364265333</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.142400745642882</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.53391679599476</v>
+        <v>-23.1432434998321</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.377370079430584</v>
+        <v>-3.805109290216973</v>
       </c>
       <c r="G34" t="n">
-        <v>-11.23520681025217</v>
+        <v>-11.36276099940998</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.997336736398326</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.20973652866336</v>
+        <v>-22.8597006575785</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.065294993101669</v>
+        <v>-3.436057717861031</v>
       </c>
       <c r="G35" t="n">
-        <v>-11.50812584058396</v>
+        <v>-11.54877304367549</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.735131110588312</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.93598147815732</v>
+        <v>-22.51753373398373</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.228103810776803</v>
+        <v>-3.597834955087246</v>
       </c>
       <c r="G36" t="n">
-        <v>-11.27173746956175</v>
+        <v>-11.28026389753765</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.367378057975226</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.47315386508709</v>
+        <v>-22.08498374044029</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.252651514255584</v>
+        <v>-3.721776168170408</v>
       </c>
       <c r="G37" t="n">
-        <v>-11.42852303077685</v>
+        <v>-11.35286564951134</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.913612593303283</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.10720681209164</v>
+        <v>-21.70054646347417</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.350104088133799</v>
+        <v>-3.790163596224814</v>
       </c>
       <c r="G38" t="n">
-        <v>-11.29880790058386</v>
+        <v>-11.22235850020591</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.399947551527928</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.68062140692584</v>
+        <v>-21.22780883348469</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.266154951222003</v>
+        <v>-3.754869855652555</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.33385230180591</v>
+        <v>-11.35389722996026</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.8592363706840594</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.07564591920005</v>
+        <v>-20.50034905672208</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.383197775615947</v>
+        <v>-3.849643253767701</v>
       </c>
       <c r="G40" t="n">
-        <v>-11.2831973016578</v>
+        <v>-11.27772650297373</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.3238845777779016</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.48833441328442</v>
+        <v>-19.95556702154175</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.173400712942892</v>
+        <v>-3.68041028106944</v>
       </c>
       <c r="G41" t="n">
-        <v>-11.46335720470362</v>
+        <v>-11.40900122635726</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1742465942492613</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.43391487784879</v>
+        <v>-19.89561313033277</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.894311755945052</v>
+        <v>-3.319635797339185</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.36684820915072</v>
+        <v>-11.30467470882416</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6086688550056527</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.98017592854415</v>
+        <v>-19.51643153574858</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.131863710601583</v>
+        <v>-3.607050733031381</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.55914751624708</v>
+        <v>-11.62399041432298</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.959962270616708</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.78165780471307</v>
+        <v>-19.21862746046419</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.837623721323173</v>
+        <v>-3.179829756972886</v>
       </c>
       <c r="G44" t="n">
-        <v>-11.56433964153975</v>
+        <v>-11.67665479629338</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.211477487269336</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.40249576615635</v>
+        <v>-18.95875230045333</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.921675527379175</v>
+        <v>-3.270765284697503</v>
       </c>
       <c r="G45" t="n">
-        <v>-11.25941228325026</v>
+        <v>-11.56625613223158</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.356904923815119</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.20454476712183</v>
+        <v>-18.69121117767514</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.926852985651238</v>
+        <v>-3.235412876042842</v>
       </c>
       <c r="G46" t="n">
-        <v>-11.03120810972327</v>
+        <v>-11.41036525927313</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.40127482494358</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.65901960289773</v>
+        <v>-18.25295571311802</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.048354584307809</v>
+        <v>-3.317846420825894</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.12323877498608</v>
+        <v>-11.5686321895689</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.357585447841273</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.92381563925792</v>
+        <v>-17.41746844062406</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.040849958767094</v>
+        <v>-3.315470363488574</v>
       </c>
       <c r="G48" t="n">
-        <v>-10.722599329263</v>
+        <v>-11.26737647543647</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.248045761531062</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.89300511798263</v>
+        <v>-17.48362648154715</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.962889855267268</v>
+        <v>-3.235202648747564</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.31122851346704</v>
+        <v>-10.8210737055764</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.100691118063716</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.21770615548313</v>
+        <v>-16.86125590738888</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.192717179074073</v>
+        <v>-3.480601459425493</v>
       </c>
       <c r="G50" t="n">
-        <v>-10.47531336193444</v>
+        <v>-11.09411985008673</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.9440865422554787</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.68443773147438</v>
+        <v>-16.31208354404206</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.114537070265236</v>
+        <v>-3.376421612098402</v>
       </c>
       <c r="G51" t="n">
-        <v>-10.15566520396868</v>
+        <v>-10.72537628516341</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.8058136588295012</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.12392776120318</v>
+        <v>-15.74611744210738</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.178103937548864</v>
+        <v>-3.378959006662331</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.601926508208155</v>
+        <v>-10.19105672467827</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.71034969463038</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.87984898237932</v>
+        <v>-15.50396004298222</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.106954220614651</v>
+        <v>-3.4203542278045</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.564750499992135</v>
+        <v>-10.21405461298024</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.6736608114459407</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.32517159730035</v>
+        <v>-14.89583603483413</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.099723379458484</v>
+        <v>-3.233173710897794</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.424724454316824</v>
+        <v>-9.965101494310066</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.7017051175552586</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.88097110039306</v>
+        <v>-14.36848330913435</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.142472855502788</v>
+        <v>-3.308855537197638</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.635870882885147</v>
+        <v>-10.24691851713964</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.7919658457334742</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.68966915069755</v>
+        <v>-14.18308727973407</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.342770577833427</v>
+        <v>-3.644759642995896</v>
       </c>
       <c r="G56" t="n">
-        <v>-9.40179990111786</v>
+        <v>-9.857171778716051</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.9324645568010099</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.3488271479637</v>
+        <v>-13.91661196045287</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.409637524752223</v>
+        <v>-3.635754092347039</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.560981075697743</v>
+        <v>-9.975720417225006</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.10393296125608</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.19435408699666</v>
+        <v>-13.75969928505924</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.341377210876356</v>
+        <v>-3.611724623596152</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.743600149197617</v>
+        <v>-10.11634781074495</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.283799282975991</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.02226593428812</v>
+        <v>-13.52196154814176</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.528440391618256</v>
+        <v>-3.79790289409514</v>
       </c>
       <c r="G59" t="n">
-        <v>-10.00189615999047</v>
+        <v>-10.22402818698875</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.447072677635447</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.76333435260257</v>
+        <v>-13.19566434083699</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.587328479330246</v>
+        <v>-4.010212906297789</v>
       </c>
       <c r="G60" t="n">
-        <v>-10.39918663600971</v>
+        <v>-10.56654711907794</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.569321198653066</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.305698864825</v>
+        <v>-12.69616917626489</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.725012690716305</v>
+        <v>-4.103636938517666</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.68049031311826</v>
+        <v>-10.83312510750335</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.629770288789409</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.06436770786034</v>
+        <v>-12.35921882299711</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.664931685328787</v>
+        <v>-4.070171686513634</v>
       </c>
       <c r="G62" t="n">
-        <v>-11.22879243324277</v>
+        <v>-11.53349489721638</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.613218017020712</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.85998277578896</v>
+        <v>-12.11829834260928</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.744954949726451</v>
+        <v>-4.140764056665018</v>
       </c>
       <c r="G63" t="n">
-        <v>-11.57749595901862</v>
+        <v>-11.85068877373496</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.510474261875552</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.00348490534665</v>
+        <v>-12.31196168262152</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.900708930492628</v>
+        <v>-4.307474301819951</v>
       </c>
       <c r="G64" t="n">
-        <v>-11.93532726061499</v>
+        <v>-12.12380336434143</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.320916101880657</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.08305349210569</v>
+        <v>-12.35074617409675</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.899291118501222</v>
+        <v>-4.377851555669192</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.31468974845325</v>
+        <v>-12.57897968166494</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.051792789196494</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.15646193021242</v>
+        <v>-12.44478622118186</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.032506777610921</v>
+        <v>-4.549939708377731</v>
       </c>
       <c r="G66" t="n">
-        <v>-12.56228861222129</v>
+        <v>-12.83957841469211</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.7159298945832829</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.09865431301801</v>
+        <v>-12.38668037456858</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.156105760213397</v>
+        <v>-4.687883037127737</v>
       </c>
       <c r="G67" t="n">
-        <v>-12.70843569449398</v>
+        <v>-12.99513194617674</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3336925815711576</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.13303380930616</v>
+        <v>-12.43265170613818</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.949095431454485</v>
+        <v>-4.477553072706188</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.07387917978214</v>
+        <v>-13.45238120241183</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07158012713987313</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.46771077438082</v>
+        <v>-12.74161249509287</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.763156722291976</v>
+        <v>-4.336338998362217</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.36606578617645</v>
+        <v>-13.69931516124597</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4758580918706227</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.42288347041808</v>
+        <v>-12.5926982349335</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.695629759446146</v>
+        <v>-4.305396473901513</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.76719902159308</v>
+        <v>-14.05406149950932</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8556500007528018</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.7488628922765</v>
+        <v>-12.89538642807794</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.677647992189633</v>
+        <v>-4.292685056047533</v>
       </c>
       <c r="G71" t="n">
-        <v>-14.5335948490438</v>
+        <v>-14.85536483598981</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.194069936298357</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.07845040120271</v>
+        <v>-13.16335289445355</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.678308008116667</v>
+        <v>-4.29641536828699</v>
       </c>
       <c r="G72" t="n">
-        <v>-14.7265395050466</v>
+        <v>-15.05029442878058</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.479653771199743</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.57222542774052</v>
+        <v>-13.75197465420951</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.814784634806597</v>
+        <v>-4.476316153968859</v>
       </c>
       <c r="G73" t="n">
-        <v>-14.79931237226063</v>
+        <v>-15.19010046914688</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.707576856110526</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.09485048379999</v>
+        <v>-14.33220687818184</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.810516531811781</v>
+        <v>-4.465130106257358</v>
       </c>
       <c r="G74" t="n">
-        <v>-15.07169850084393</v>
+        <v>-15.43663352941793</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.882136616827976</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.68081262382035</v>
+        <v>-14.99011564325572</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.715674687600497</v>
+        <v>-4.438348126640397</v>
       </c>
       <c r="G75" t="n">
-        <v>-15.42340876584293</v>
+        <v>-15.89796021738002</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.0112901856813</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.91637964168891</v>
+        <v>-15.26060483717466</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.721888615328346</v>
+        <v>-4.381479198764443</v>
       </c>
       <c r="G76" t="n">
-        <v>-15.41523434636144</v>
+        <v>-15.86705680497426</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.105173160828663</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.71873900365266</v>
+        <v>-16.04598956729648</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.867199677426793</v>
+        <v>-4.520263436695558</v>
       </c>
       <c r="G77" t="n">
-        <v>-15.46596268161255</v>
+        <v>-15.86961864457252</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.178442184042899</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.21637634561533</v>
+        <v>-16.61943584973753</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.84102393466133</v>
+        <v>-4.587477503101904</v>
       </c>
       <c r="G78" t="n">
-        <v>-15.50271334623115</v>
+        <v>-15.91444594853526</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.244366565063565</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.21642270024278</v>
+        <v>-17.74588747690907</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.704845537390281</v>
+        <v>-4.209777277598389</v>
       </c>
       <c r="G79" t="n">
-        <v>-15.52715349155886</v>
+        <v>-15.97005351263955</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.313199334697075</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.93182129706471</v>
+        <v>-18.42220824184375</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.056907810883693</v>
+        <v>-4.627753141671549</v>
       </c>
       <c r="G80" t="n">
-        <v>-15.39108265243888</v>
+        <v>-15.78488726656202</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.395663366565017</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.42997687375528</v>
+        <v>-18.89549832960918</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.807646684780901</v>
+        <v>-4.322229324544301</v>
       </c>
       <c r="G81" t="n">
-        <v>-15.13971925338332</v>
+        <v>-15.58302995104083</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.496951301003528</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.21803100162643</v>
+        <v>-19.80932704813859</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.985484309564933</v>
+        <v>-4.554848271272114</v>
       </c>
       <c r="G82" t="n">
-        <v>-15.32835669433637</v>
+        <v>-15.76543390823856</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.61809149651735</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.09291389145399</v>
+        <v>-20.7441393841408</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.131939399270237</v>
+        <v>-4.647710067702296</v>
       </c>
       <c r="G83" t="n">
-        <v>-15.18033223342678</v>
+        <v>-15.57878140407348</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.759850532836554</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.89106870751219</v>
+        <v>-21.57096822547345</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.265023055194529</v>
+        <v>-4.833282101349787</v>
       </c>
       <c r="G84" t="n">
-        <v>-14.91934237985026</v>
+        <v>-15.26515161356089</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.917527265440186</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.16716794587313</v>
+        <v>-22.80472377536004</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.982609573527187</v>
+        <v>-4.44135486586355</v>
       </c>
       <c r="G85" t="n">
-        <v>-14.96520126426192</v>
+        <v>-15.43069338607463</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.084308044818976</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.45859910976872</v>
+        <v>-24.22011081935939</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.301270152105836</v>
+        <v>-4.822609399359312</v>
       </c>
       <c r="G86" t="n">
-        <v>-14.52940497015886</v>
+        <v>-14.96109449849371</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.255114427620641</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.43740272955942</v>
+        <v>-25.21244232115085</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.1272752867192</v>
+        <v>-4.545524935176907</v>
       </c>
       <c r="G87" t="n">
-        <v>-14.81023930260819</v>
+        <v>-15.23829629884093</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.421228891339318</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.50931748513052</v>
+        <v>-26.27209544749973</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.867522351880009</v>
+        <v>-4.194416018022543</v>
       </c>
       <c r="G88" t="n">
-        <v>-14.54694183779048</v>
+        <v>-15.05740793377194</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.577217206395693</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.98012631097322</v>
+        <v>-27.85696480354754</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.131044711013591</v>
+        <v>-4.322243991564902</v>
       </c>
       <c r="G89" t="n">
-        <v>-14.25235961803139</v>
+        <v>-14.73953937430573</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.720484005741555</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.58918647299853</v>
+        <v>-29.39499747381032</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.056506912320606</v>
+        <v>-4.204047361550366</v>
       </c>
       <c r="G90" t="n">
-        <v>-14.33569274007795</v>
+        <v>-14.92830392943732</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.846605668537709</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.89100188747944</v>
+        <v>-30.66778929902579</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.877202585476501</v>
+        <v>-4.00078201205151</v>
       </c>
       <c r="G91" t="n">
-        <v>-14.01283250460062</v>
+        <v>-14.67363556173972</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.956674165625699</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.72978914867079</v>
+        <v>-32.57404241047713</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.916094635102809</v>
+        <v>-3.969712373412265</v>
       </c>
       <c r="G92" t="n">
-        <v>-13.92145696625798</v>
+        <v>-14.61939203055129</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.052923689071925</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.57884821328953</v>
+        <v>-34.37938642019535</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.789210239885765</v>
+        <v>-3.755832990005337</v>
       </c>
       <c r="G93" t="n">
-        <v>-14.06733515315299</v>
+        <v>-14.66255218317242</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.135681719982119</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.0835134116856</v>
+        <v>-35.83789694926431</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.748621704876637</v>
+        <v>-3.62876281252735</v>
       </c>
       <c r="G94" t="n">
-        <v>-14.12199913893197</v>
+        <v>-14.72418789274362</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.211782314319191</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.34896919115948</v>
+        <v>-38.11576347266986</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.51493206564497</v>
+        <v>-3.22882249478624</v>
       </c>
       <c r="G95" t="n">
-        <v>-13.90565080705725</v>
+        <v>-14.60187960795401</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.283347594907172</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.191056531986</v>
+        <v>-39.93483336916694</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.539929557755506</v>
+        <v>-3.13232816625394</v>
       </c>
       <c r="G96" t="n">
-        <v>-13.81945761599354</v>
+        <v>-14.3982818059882</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.351499999841753</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.23758013945599</v>
+        <v>-42.00517132908568</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.612257525344646</v>
+        <v>-3.194208326168482</v>
       </c>
       <c r="G97" t="n">
-        <v>-14.00566522053373</v>
+        <v>-14.59673148372314</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.41528079958709</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.46450565581172</v>
+        <v>-44.21148234798706</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.396970107960046</v>
+        <v>-2.899073648633427</v>
       </c>
       <c r="G98" t="n">
-        <v>-13.87522651732444</v>
+        <v>-14.39934272047832</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.473714750704091</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.60912474156293</v>
+        <v>-46.46318779564774</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.280909973946352</v>
+        <v>-2.643735486995061</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.25910644750773</v>
+        <v>-14.8505051631641</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.510003024929286</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.03707644227246</v>
+        <v>-48.74413439337944</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.893783743203425</v>
+        <v>-2.191145454304143</v>
       </c>
       <c r="G100" t="n">
-        <v>-14.73715842796154</v>
+        <v>-15.41260894967391</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.525212019670827</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.10411432255604</v>
+        <v>-50.74415498978306</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.413893496167655</v>
+        <v>-1.572089626801638</v>
       </c>
       <c r="G101" t="n">
-        <v>-14.79409580193363</v>
+        <v>-15.50275245828609</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.484939155609514</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.31862298372152</v>
+        <v>-52.72269329001345</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.43459844024904</v>
+        <v>-1.437500156762337</v>
       </c>
       <c r="G102" t="n">
-        <v>-15.68966407981511</v>
+        <v>-16.48122851461671</v>
       </c>
     </row>
   </sheetData>
